--- a/exceldatanew.xlsx
+++ b/exceldatanew.xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
   <si>
     <t>6</t>
   </si>
@@ -1471,9 +1471,6 @@
   </si>
   <si>
     <t>$173,799</t>
-  </si>
-  <si>
-    <t>111H</t>
   </si>
   <si>
     <t>STATE AL</t>
@@ -2300,10 +2297,10 @@
   <dimension ref="A1:AE91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,7 +2470,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2535,7 +2532,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -3020,7 +3017,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
@@ -3211,7 +3208,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3403,7 +3400,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3619,7 +3616,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3721,7 +3718,7 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
@@ -3970,7 +3967,7 @@
         <v>136</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3991,7 +3988,7 @@
         <v>137</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4018,7 +4015,7 @@
         <v>178</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4035,7 +4032,7 @@
         <v>178</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4049,7 +4046,7 @@
         <v>158</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4163,7 +4160,7 @@
         <v>179</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
@@ -4183,7 +4180,7 @@
         <v>180</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
@@ -4470,10 +4467,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4486,19 +4483,19 @@
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" t="s">
         <v>198</v>
       </c>
-      <c r="F10" t="s">
-        <v>199</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4509,19 +4506,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4592,116 +4589,116 @@
         <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>220</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4737,94 +4734,94 @@
         <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>233</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4861,19 +4858,19 @@
         <v>33</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>196</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4909,76 +4906,76 @@
         <v>44</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5035,7 +5032,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5099,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5134,64 +5131,64 @@
         <v>52</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>241</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>236</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>250</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5210,19 +5207,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5254,7 +5251,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5265,103 +5262,103 @@
         <v>57</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>271</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5404,76 +5401,76 @@
         <v>66</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="O56" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="P56" s="10" t="s">
         <v>142</v>
       </c>
       <c r="Q56" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="R56" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>256</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="V56" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="W56" s="10" t="s">
         <v>142</v>
       </c>
       <c r="X56" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Y56" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5514,7 +5511,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5636,7 +5633,7 @@
         <v>97</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5658,7 +5655,7 @@
         <v>101</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5838,7 +5835,7 @@
         <v>138</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5866,7 +5863,7 @@
         <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">

--- a/exceldatanew.xlsx
+++ b/exceldatanew.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="high" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Proposed TD</t>
+Current Depth</t>
         </r>
       </text>
     </comment>
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="294">
   <si>
     <t>6</t>
   </si>
@@ -1327,9 +1327,6 @@
   </si>
   <si>
     <t>Reporting Builder</t>
-  </si>
-  <si>
-    <t>16312</t>
   </si>
   <si>
     <t>Executive View CostVsDepth</t>
@@ -2296,8 +2293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
@@ -2470,7 +2467,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="8"/>
@@ -2532,7 +2529,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G8" s="6"/>
       <c r="M8" s="9"/>
@@ -2599,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M11" s="9"/>
     </row>
@@ -2630,7 +2627,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G13" s="11"/>
       <c r="M13" s="9"/>
@@ -2699,7 +2696,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="9"/>
     </row>
@@ -2717,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2753,7 +2750,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2771,7 +2768,7 @@
         <v>10</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M21" s="9"/>
     </row>
@@ -2789,7 +2786,7 @@
         <v>10</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M22" s="9"/>
     </row>
@@ -2807,7 +2804,7 @@
         <v>10</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M23" s="9"/>
     </row>
@@ -2825,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M24" s="9"/>
     </row>
@@ -2843,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M25" s="9"/>
     </row>
@@ -2877,7 +2874,7 @@
         <v>42</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M27" s="9"/>
     </row>
@@ -3017,13 +3014,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>14</v>
@@ -3074,7 +3071,7 @@
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>22</v>
@@ -3104,7 +3101,7 @@
         <v>22</v>
       </c>
       <c r="J37" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3208,7 +3205,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="8"/>
@@ -3265,7 +3262,7 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
@@ -3400,7 +3397,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="8"/>
@@ -3506,7 +3503,7 @@
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>22</v>
@@ -3554,7 +3551,7 @@
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>65</v>
@@ -3578,7 +3575,7 @@
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>64</v>
@@ -3602,7 +3599,7 @@
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>64</v>
@@ -3616,7 +3613,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="8"/>
@@ -3626,7 +3623,7 @@
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>64</v>
@@ -3650,7 +3647,7 @@
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>64</v>
@@ -3674,7 +3671,7 @@
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>64</v>
@@ -3698,7 +3695,7 @@
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>64</v>
@@ -3718,11 +3715,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>64</v>
@@ -3746,7 +3743,7 @@
       </c>
       <c r="G64" s="11"/>
       <c r="H64" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>64</v>
@@ -3770,7 +3767,7 @@
       </c>
       <c r="G65" s="11"/>
       <c r="H65" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>64</v>
@@ -3967,7 +3964,7 @@
         <v>136</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G74" s="6"/>
       <c r="H74" s="6" t="s">
@@ -3988,7 +3985,7 @@
         <v>137</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G75" s="6"/>
       <c r="H75" s="6" t="s">
@@ -4006,16 +4003,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -4023,16 +4020,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>133</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -4040,13 +4037,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6" t="s">
@@ -4064,10 +4061,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F79" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4075,7 +4072,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -4083,7 +4080,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4091,7 +4088,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4099,7 +4096,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4107,7 +4104,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4115,7 +4112,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4123,7 +4120,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4131,7 +4128,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4139,7 +4136,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>42</v>
@@ -4157,19 +4154,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G89" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I89" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J89" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="J89" s="29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4177,19 +4174,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G90" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I90" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="J90" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="J90" s="29" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4197,7 +4194,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8"/>
@@ -4226,11 +4223,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4467,10 +4464,10 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4483,19 +4480,19 @@
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" t="s">
         <v>197</v>
       </c>
-      <c r="F10" t="s">
-        <v>198</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -4506,19 +4503,19 @@
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -4559,10 +4556,10 @@
         <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -4589,116 +4586,116 @@
         <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="I18" s="10" t="s">
+      <c r="J18" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="P18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="S18" s="10" t="s">
+      <c r="T18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="U18" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="V18" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="W18" s="28" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="AC18" s="10" t="s">
+      <c r="AD18" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="AD18" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="AE18" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AF18" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="AG18" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="AG18" s="10" t="s">
+      <c r="AH18" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="AH18" s="10" t="s">
+      <c r="AI18" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="AI18" s="10" t="s">
+      <c r="AJ18" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK18" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL18" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="AJ18" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK18" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AL18" s="10" t="s">
-        <v>288</v>
-      </c>
       <c r="AM18" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN18" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="AN18" s="10" t="s">
+      <c r="AO18" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="AO18" s="10" t="s">
-        <v>219</v>
-      </c>
       <c r="AP18" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AQ18" s="10"/>
     </row>
@@ -4734,94 +4731,94 @@
         <v>29</v>
       </c>
       <c r="C22" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="M22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="R22" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G22" s="10" t="s">
+      <c r="S22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="T22" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="U22" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="V22" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="W22" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="X22" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="I22" s="10" t="s">
+      <c r="Y22" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="Z22" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AD22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="O22" s="10" t="s">
+      <c r="AE22" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="AF22" s="10" t="s">
         <v>231</v>
-      </c>
-      <c r="Q22" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="S22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="W22" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="Y22" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z22" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA22" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="AC22" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="AE22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>232</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AH22" s="10"/>
@@ -4858,19 +4855,19 @@
         <v>33</v>
       </c>
       <c r="C25" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="E25" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>195</v>
-      </c>
       <c r="F25" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H25" s="19"/>
     </row>
@@ -4906,76 +4903,76 @@
         <v>44</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="E29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="H29" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="I29" s="10" t="s">
-        <v>243</v>
-      </c>
       <c r="J29" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="M29" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q29" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="R29" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="S29" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="T29" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="O29" s="10" t="s">
+      <c r="W29" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="P29" s="10" t="s">
+      <c r="X29" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="R29" s="10" t="s">
+      <c r="Z29" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="S29" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="U29" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="W29" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="X29" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Y29" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z29" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -5032,7 +5029,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.25">
@@ -5096,7 +5093,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="1:43" x14ac:dyDescent="0.25">
@@ -5131,64 +5128,64 @@
         <v>52</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="10" t="s">
+      <c r="G46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>240</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K46" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L46" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="M46" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="O46" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q46" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="S46" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q46" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="S46" s="10" t="s">
-        <v>249</v>
-      </c>
       <c r="T46" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -5207,19 +5204,19 @@
       <c r="AK46" s="10"/>
       <c r="AL46" s="10"/>
       <c r="AM46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AN46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AO46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AP46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AQ46" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:43" x14ac:dyDescent="0.25">
@@ -5251,7 +5248,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:43" x14ac:dyDescent="0.25">
@@ -5262,103 +5259,103 @@
         <v>57</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="M51" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="O51" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="P51" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="Q51" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="I51" s="10" t="s">
+      <c r="R51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="S51" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T51" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="U51" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="V51" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="W51" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="X51" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="M51" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q51" s="10" t="s">
+      <c r="Y51" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z51" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="S51" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="T51" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="U51" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="V51" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y51" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>270</v>
-      </c>
       <c r="AA51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AB51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AH51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AI51" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:43" x14ac:dyDescent="0.25">
@@ -5401,76 +5398,76 @@
         <v>66</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="G56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="I56" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I56" s="10" t="s">
+      <c r="J56" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="J56" s="10" t="s">
+      <c r="K56" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="K56" s="10" t="s">
-        <v>246</v>
-      </c>
       <c r="L56" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M56" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="N56" s="10" t="s">
+      <c r="O56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="O56" s="10" t="s">
+      <c r="P56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q56" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="P56" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q56" s="10" t="s">
+      <c r="R56" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="R56" s="10" t="s">
-        <v>255</v>
-      </c>
       <c r="S56" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="T56" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="U56" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="U56" s="10" t="s">
+      <c r="V56" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="V56" s="10" t="s">
+      <c r="W56" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="X56" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="W56" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>254</v>
-      </c>
       <c r="Y56" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -5511,7 +5508,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:43" x14ac:dyDescent="0.25">
@@ -5609,10 +5606,10 @@
       </c>
       <c r="K68" s="17"/>
       <c r="L68" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="M68" s="17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.25">
@@ -5633,7 +5630,7 @@
         <v>97</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M69" s="17"/>
     </row>
@@ -5655,7 +5652,7 @@
         <v>101</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M70" s="17"/>
     </row>
@@ -5735,7 +5732,7 @@
         <v>120</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>125</v>
@@ -5756,61 +5753,61 @@
         <v>128</v>
       </c>
       <c r="J73" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K73" s="17" t="s">
         <v>126</v>
       </c>
       <c r="L73" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M73" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="M73" s="17" t="s">
+      <c r="N73" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="N73" s="17" t="s">
-        <v>157</v>
       </c>
       <c r="O73" s="23" t="s">
         <v>131</v>
       </c>
       <c r="P73" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q73" s="17" t="s">
         <v>153</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="R73" s="22" t="s">
         <v>132</v>
       </c>
       <c r="S73" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="T73" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="U73" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V73" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="W73" t="s">
+        <v>147</v>
+      </c>
+      <c r="X73" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z73" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA73" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB73" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="T73" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="U73" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="V73" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="W73" t="s">
-        <v>148</v>
-      </c>
-      <c r="X73" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z73" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="AA73" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB73" s="21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.25">
@@ -5828,14 +5825,14 @@
       <c r="B75" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D75" s="30" t="s">
-        <v>138</v>
+      <c r="C75" s="30">
+        <v>19543.8</v>
+      </c>
+      <c r="D75" s="30">
+        <v>19543.8</v>
       </c>
       <c r="E75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.25">
@@ -5843,7 +5840,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.25">
@@ -5851,19 +5848,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="30" t="s">
         <v>140</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>141</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>82</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.25">
@@ -5881,10 +5878,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C80" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D80" s="16"/>
       <c r="F80" s="25"/>
@@ -5894,13 +5891,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C81" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -5908,13 +5905,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="26" t="s">
         <v>167</v>
-      </c>
-      <c r="C82" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="26" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -5922,13 +5919,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D83" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -5936,13 +5933,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -5950,13 +5947,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,13 +5961,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,13 +5975,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/exceldatanew.xlsx
+++ b/exceldatanew.xlsx
@@ -1927,7 +1927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2010,6 +2010,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4224,10 +4227,10 @@
   <dimension ref="A1:AQ87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,10 +5828,10 @@
       <c r="B75" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="30">
+      <c r="C75" s="37">
         <v>19543.8</v>
       </c>
-      <c r="D75" s="30">
+      <c r="D75" s="37">
         <v>19543.8</v>
       </c>
       <c r="E75" t="s">

--- a/exceldatanew.xlsx
+++ b/exceldatanew.xlsx
@@ -913,7 +913,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="295">
   <si>
     <t>6</t>
   </si>
@@ -1799,6 +1799,9 @@
   </si>
   <si>
     <t>1584CP 3H</t>
+  </si>
+  <si>
+    <t>19543.80</t>
   </si>
 </sst>
 </file>
@@ -5828,11 +5831,11 @@
       <c r="B75" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C75" s="37">
-        <v>19543.8</v>
-      </c>
-      <c r="D75" s="37">
-        <v>19543.8</v>
+      <c r="C75" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>294</v>
       </c>
       <c r="E75" t="s">
         <v>186</v>
